--- a/Tradução - Maicon/Traduções_parte5.xlsx
+++ b/Tradução - Maicon/Traduções_parte5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="1643">
   <si>
     <t>Português</t>
   </si>
@@ -5021,6 +5021,33 @@
   </si>
   <si>
     <t>Apply setting the dates below.</t>
+  </si>
+  <si>
+    <t>bck_Destination_Folder</t>
+  </si>
+  <si>
+    <t>Pasta de destino</t>
+  </si>
+  <si>
+    <t>Destination Folder</t>
+  </si>
+  <si>
+    <t>bck_Access_Keys</t>
+  </si>
+  <si>
+    <t>Chaves de Acesso</t>
+  </si>
+  <si>
+    <t>Access Keys</t>
+  </si>
+  <si>
+    <t>Folder Selection</t>
+  </si>
+  <si>
+    <t>Seleção de Pasta</t>
+  </si>
+  <si>
+    <t>bck_Folder_Selection</t>
   </si>
 </sst>
 </file>
@@ -5074,7 +5101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5097,12 +5124,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5132,6 +5170,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -5462,17 +5506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D586"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B591" sqref="B591"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C589" sqref="C589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
-    <col min="2" max="2" width="92.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
     <col min="3" max="3" width="99.28515625" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
   </cols>
@@ -12211,6 +12255,39 @@
         <v>1315</v>
       </c>
       <c r="D586" s="12"/>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="13" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C589" s="14" t="s">
+        <v>1640</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D586">

--- a/Tradução - Maicon/Traduções_parte5.xlsx
+++ b/Tradução - Maicon/Traduções_parte5.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1695">
   <si>
     <t>Português</t>
   </si>
@@ -5048,6 +5048,162 @@
   </si>
   <si>
     <t>bck_Folder_Selection</t>
+  </si>
+  <si>
+    <t>Registro removido com sucesso</t>
+  </si>
+  <si>
+    <t>Message_Removed_Record</t>
+  </si>
+  <si>
+    <t>Successfully removed record</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Documento Fiscais Emitidos</t>
+  </si>
+  <si>
+    <t>windowTitle_Fiscal_Documents_Issued</t>
+  </si>
+  <si>
+    <t>Cadastro Somente Leitura</t>
+  </si>
+  <si>
+    <t>Register Read Only</t>
+  </si>
+  <si>
+    <t>windowTitle_Register_Read_Only</t>
+  </si>
+  <si>
+    <t>O inventário para o período informado está finalizado. Essa nota não irá gerar movimentações ou reservas de estoque. Deseja continuar?</t>
+  </si>
+  <si>
+    <t>The inventory for the reporting period is finalized. This note will not generate movements or inventory reserves. Do you wish to continue?</t>
+  </si>
+  <si>
+    <t>Message_Inventory_Finalized</t>
+  </si>
+  <si>
+    <t>Aguarde Salvando...</t>
+  </si>
+  <si>
+    <t>BusyMsg_Save</t>
+  </si>
+  <si>
+    <t>Wait Saving...</t>
+  </si>
+  <si>
+    <t>Aguarde Salvando Série Fiscal...</t>
+  </si>
+  <si>
+    <t>Wait Saving Fiscal Series ...</t>
+  </si>
+  <si>
+    <t>BusyMsg_Saving_Fiscal_Series</t>
+  </si>
+  <si>
+    <t>Aguarde Atualizando Pedido de Venda...</t>
+  </si>
+  <si>
+    <t>Wait Updating Request Sale ...</t>
+  </si>
+  <si>
+    <t>BusyMsg_Updating_Request_Sale</t>
+  </si>
+  <si>
+    <t>Registro gerado a partir da emissão do Documento Fiscal Nº {0} - Série {1}.</t>
+  </si>
+  <si>
+    <t>Record generated from the issuance of the Fiscal Document No. {0} - Series {1}.</t>
+  </si>
+  <si>
+    <t>Message_Record_Generated_Fiscal_Document</t>
+  </si>
+  <si>
+    <t>Não foi possível salvar o documento {0} no banco de dados, deseja tentar novamente?</t>
+  </si>
+  <si>
+    <t>Unable to save {0} document in the database, you want to try again?</t>
+  </si>
+  <si>
+    <t>Message_Unable_Save_Document</t>
+  </si>
+  <si>
+    <t>Documento Auxiliar da Nota Fiscal do Consumidor Eletrônica - DANFE</t>
+  </si>
+  <si>
+    <t>Document Assistant Fiscal of Electronic Consumer Note - DANFE</t>
+  </si>
+  <si>
+    <t>MessageTitle_Document_Assistant_Fiscal</t>
+  </si>
+  <si>
+    <t>MessageTitle_Document_Assistant_Fiscal_Consumer</t>
+  </si>
+  <si>
+    <t>Documento Auxiliar da Nota Fiscal Eletrônica - DANFE</t>
+  </si>
+  <si>
+    <t>Auxiliary Document of the Electronic Invoice - DANFE</t>
+  </si>
+  <si>
+    <t>Documento Auxiliar de Carta de Correção - DACCe</t>
+  </si>
+  <si>
+    <t>Document Correction Letter Assistant - DACCe</t>
+  </si>
+  <si>
+    <t>MessageTitle_Document_Assistant_Correction</t>
+  </si>
+  <si>
+    <t>Documento Auxiliar do Cupom Fiscal Eletrônico - DANFE</t>
+  </si>
+  <si>
+    <t>Document Auxiliary Tax Coupon  Electronic - DANFE</t>
+  </si>
+  <si>
+    <t>MessageTitle_Document_Assistant_Fiscal_Coupon_Tax</t>
+  </si>
+  <si>
+    <t>Use o {0} para realizar as operações fiscais.</t>
+  </si>
+  <si>
+    <t>Use the {0} to perform fiscal operations.</t>
+  </si>
+  <si>
+    <t>MessageTitle_Use_Program_Fiscal</t>
+  </si>
+  <si>
+    <t>Redução Z pendente.</t>
+  </si>
+  <si>
+    <t>Z Reduction pending.</t>
+  </si>
+  <si>
+    <t>Message_Z_Reduction</t>
+  </si>
+  <si>
+    <t>Aguarde, importando NF-e ...</t>
+  </si>
+  <si>
+    <t>BusyMsg_Wait_Importing</t>
+  </si>
+  <si>
+    <t>Wait, importing NF-e ...</t>
+  </si>
+  <si>
+    <t>Aguarde, verificando status do serviço de integração...</t>
+  </si>
+  <si>
+    <t>Wait, checking status of the integration service ...</t>
+  </si>
+  <si>
+    <t>BusyMsg_Wait_Checking_Status</t>
+  </si>
+  <si>
+    <t>Message_Successfully_Removed_Record</t>
   </si>
 </sst>
 </file>
@@ -5506,11 +5662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C589" sqref="C589"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A608" sqref="A608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,7 +7683,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>726</v>
       </c>
@@ -7816,7 +7972,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>766</v>
       </c>
@@ -8740,7 +8896,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>914</v>
       </c>
@@ -8905,7 +9061,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>941</v>
       </c>
@@ -9389,7 +9545,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>1023</v>
       </c>
@@ -9411,7 +9567,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>1026</v>
       </c>
@@ -9433,7 +9589,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>1029</v>
       </c>
@@ -9455,7 +9611,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>1032</v>
       </c>
@@ -9466,7 +9622,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>1033</v>
       </c>
@@ -9499,7 +9655,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>1037</v>
       </c>
@@ -9532,7 +9688,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>1043</v>
       </c>
@@ -9543,7 +9699,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>1044</v>
       </c>
@@ -9653,7 +9809,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>1058</v>
       </c>
@@ -9917,7 +10073,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>1096</v>
       </c>
@@ -12287,6 +12443,215 @@
       </c>
       <c r="C589" s="14" t="s">
         <v>1640</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C592" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C595" s="7" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1645</v>
       </c>
     </row>
   </sheetData>
@@ -12296,5 +12661,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tradução - Maicon/Traduções_parte5.xlsx
+++ b/Tradução - Maicon/Traduções_parte5.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NFe.UI" sheetId="14" r:id="rId1"/>
+    <sheet name="NFe.SnapIn" sheetId="15" r:id="rId2"/>
+    <sheet name="NFe.Service" sheetId="17" r:id="rId3"/>
+    <sheet name="Acconts.UI" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NFe.UI!$A$1:$D$611</definedName>
@@ -17,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="2036">
   <si>
     <t>Português</t>
   </si>
@@ -5252,6 +5255,983 @@
   </si>
   <si>
     <t>windowTitle_Input_Note</t>
+  </si>
+  <si>
+    <t>bck_Fabricator</t>
+  </si>
+  <si>
+    <t>Fabricante</t>
+  </si>
+  <si>
+    <t>Fabricator</t>
+  </si>
+  <si>
+    <t>bck_Series</t>
+  </si>
+  <si>
+    <t>Data de Início</t>
+  </si>
+  <si>
+    <t>Starting date</t>
+  </si>
+  <si>
+    <t>bck_Starting_Date</t>
+  </si>
+  <si>
+    <t>Data de Término</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>bck_End_Date</t>
+  </si>
+  <si>
+    <t>windowTitle_Attention</t>
+  </si>
+  <si>
+    <t>Baixar XMLs</t>
+  </si>
+  <si>
+    <t>Download XMLs</t>
+  </si>
+  <si>
+    <t>windowTitle_Download</t>
+  </si>
+  <si>
+    <t>Leitura da Memória Fiscal</t>
+  </si>
+  <si>
+    <t>Reading Fiscal Memory</t>
+  </si>
+  <si>
+    <t>dialogTitle_Reading_Memory</t>
+  </si>
+  <si>
+    <t>A emissão da Redução Z é feita automaticamente ao enviar um novo cupom.</t>
+  </si>
+  <si>
+    <t>The issue of Z Reduction is done automatically when sending a new coupon.</t>
+  </si>
+  <si>
+    <t>Message_Z_Reduction_Automatically</t>
+  </si>
+  <si>
+    <t>Detalhes das Notas Fiscais Eletrônicas</t>
+  </si>
+  <si>
+    <t>Details of Electronic Invoices</t>
+  </si>
+  <si>
+    <t>dialogTitle_Details_Electronic</t>
+  </si>
+  <si>
+    <t>Detalhes das Notas de Entrada</t>
+  </si>
+  <si>
+    <t>Details of Input Notes</t>
+  </si>
+  <si>
+    <t>dialogTitle_Details_Input_Notes</t>
+  </si>
+  <si>
+    <t>dialogTitle_Documents_Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t>ECF_CalcelTitle</t>
+  </si>
+  <si>
+    <t>Realizar um Cancelamento</t>
+  </si>
+  <si>
+    <t>ECF_ConfirmCancel</t>
+  </si>
+  <si>
+    <t>Esta operação realizará o cancelamento da transação de código de ordem Nº {0}, referente ao cupom fiscal Nº {1} da série {2}. Deseja realizar o cancelamento?</t>
+  </si>
+  <si>
+    <t>ECF_NotCancelMessage</t>
+  </si>
+  <si>
+    <t>Não é possível cancelar a ultima operação de sua impressora {0}, série {1}, pois a mesma não refere-se a um cupom fiscal válido. Deseja tentar mesmo assim?</t>
+  </si>
+  <si>
+    <t>ECF_ReadingXMessage</t>
+  </si>
+  <si>
+    <t>Você gostaria de realizar um Leitura X de sua impressora fiscal {0}, de série {1}?</t>
+  </si>
+  <si>
+    <t>ECF_ReadingXTitle</t>
+  </si>
+  <si>
+    <t>Executar uma Leitura X</t>
+  </si>
+  <si>
+    <t>ECF_ReductionZMessage</t>
+  </si>
+  <si>
+    <t>Depois de executar uma Redução Z, você não poderá realizar outra operação fiscal referente ao dia de sua última venda com a impressora {0}, de série {1}. Deseja continuar?</t>
+  </si>
+  <si>
+    <t>ECF_ReductionZTitle</t>
+  </si>
+  <si>
+    <t>Executar uma Redução Z</t>
+  </si>
+  <si>
+    <t>EFC_FiscalMemoryMessage</t>
+  </si>
+  <si>
+    <t>Você gostaria de realizar um Leitura da Memória Fiscal de sua impressora {0}, de série {1}?</t>
+  </si>
+  <si>
+    <t>Conduct a Cancellation</t>
+  </si>
+  <si>
+    <t>This operation will perform the cancellation of the order No. code of transaction {0}, for the fiscal coupon No. {1} of the series {2}. You want to perform the cancellation?</t>
+  </si>
+  <si>
+    <t>You can not cancel the last operation of your printer {0}, series {1}, because it does not refer to a valid coupon tax. You want to try anyway?</t>
+  </si>
+  <si>
+    <t>Would you like to perform an X Reading a fiscal printer {0}, standard {1}?</t>
+  </si>
+  <si>
+    <t>Perform a Reading X</t>
+  </si>
+  <si>
+    <t>After performing a reduction Z, you can not perform another operation fiscal referring to the day of her last sale on the printer {0}, series {1}. Do you wish to continue?</t>
+  </si>
+  <si>
+    <t>Perform a Z Reduction</t>
+  </si>
+  <si>
+    <t>Would you like to perform a reading Fiscal memory of your printer {0}, standard {1}?</t>
+  </si>
+  <si>
+    <t>Message_SalesOrderIsBilled</t>
+  </si>
+  <si>
+    <t>Can not generate a tax document for the sales order situation {0} is '{1}'.</t>
+  </si>
+  <si>
+    <t>Não é possível gerar um documento fiscal porque a situação do pedido de venda {0} é ‘{1}’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Não há nenhum centro de custo selecionado.</t>
+  </si>
+  <si>
+    <t>No seleccionado de centros de coste.</t>
+  </si>
+  <si>
+    <t>msgAlert_ThereIsNotNoneCenterOfCostSelected</t>
+  </si>
+  <si>
+    <t>There is not none center of cost selected.</t>
+  </si>
+  <si>
+    <t>Números decimais. Ex: 10,45</t>
+  </si>
+  <si>
+    <t>Decimal numbers. Ex: 10.45</t>
+  </si>
+  <si>
+    <t>Números decimales. Ej: 10.45</t>
+  </si>
+  <si>
+    <t>toolTip_Decimal_Numbers</t>
+  </si>
+  <si>
+    <t>BoardingCodelInvalid</t>
+  </si>
+  <si>
+    <t>BoardingSymbolInvalid</t>
+  </si>
+  <si>
+    <t>A sigla do estado do  endereço de entrega da companhia é invalido.</t>
+  </si>
+  <si>
+    <t>Charge_CityNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar um município de código {0}.</t>
+  </si>
+  <si>
+    <t>Charge_FiscalSerieNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar uma Série Fiscal de série {0} e modelo {1}.</t>
+  </si>
+  <si>
+    <t>Charge_ItemNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar uma referência para o item '{0} – {1}'.</t>
+  </si>
+  <si>
+    <t>Charge_PersonNull</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar uma Pessoa com o número de documento '{0}'.</t>
+  </si>
+  <si>
+    <t>Charge_StateNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar um estado de sigla {0}.</t>
+  </si>
+  <si>
+    <t>Charge_TaxNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar um tributo do tipo {0}.</t>
+  </si>
+  <si>
+    <t>Charge_TaxSituationNull</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar uma situação tributária de código '{0}' cadastrado para o tipo de tributo '{1}'.</t>
+  </si>
+  <si>
+    <t>Charge_TransporterNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar uma Transportadora com o número de documento '{0}'.</t>
+  </si>
+  <si>
+    <t>Charge_XMLNotValidForImport</t>
+  </si>
+  <si>
+    <t>O XML da NF-e não é válida para a importação.</t>
+  </si>
+  <si>
+    <t>ClearanceSymbolStateAddressInvalid</t>
+  </si>
+  <si>
+    <t>A sigla do estado de  desembaraço aduaneiro do produto é invalida.</t>
+  </si>
+  <si>
+    <t>CNAE</t>
+  </si>
+  <si>
+    <t>Código Nacional de Atividade Empresarial | CNAE</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>COFINS</t>
+  </si>
+  <si>
+    <t>COFINSRet</t>
+  </si>
+  <si>
+    <t>COFINSServ</t>
+  </si>
+  <si>
+    <t>COFINSS</t>
+  </si>
+  <si>
+    <t>COFINSST</t>
+  </si>
+  <si>
+    <t>CompanyCityCodeInvalid</t>
+  </si>
+  <si>
+    <t>O endereço padrão da companhia não contém um código do município válido, conforme a tabela do IBGE.</t>
+  </si>
+  <si>
+    <t>CompanyCityNameAddressInvalid</t>
+  </si>
+  <si>
+    <t>O nome do município do endereço padrão da companhia é invalido.</t>
+  </si>
+  <si>
+    <t>CompanyCNAEInvalid</t>
+  </si>
+  <si>
+    <t>A companhia não contém um documento do tipo ‘Código Nacional de Atividade Empresarial’ ou ‘CNAE’ válido.</t>
+  </si>
+  <si>
+    <t>CompanyCNPJOrCPFNumberInvalid</t>
+  </si>
+  <si>
+    <t>A companhia não contém um documento do tipo CNPJ ou CPF válido.</t>
+  </si>
+  <si>
+    <t>CompanyIENumberInvalid</t>
+  </si>
+  <si>
+    <t>A companhia não contém um documento do tipo 'Inscrição Estadual' ou 'IE' válido.</t>
+  </si>
+  <si>
+    <t>CompanyIEValueInvalid</t>
+  </si>
+  <si>
+    <t>O valor da inscrição estadual da companhia é inválido.</t>
+  </si>
+  <si>
+    <t>CompanyInvalidAddressDefault</t>
+  </si>
+  <si>
+    <t>A Companhia não contém um endereço padrão cadastrado.</t>
+  </si>
+  <si>
+    <t>CompanyInvalidEventVersion</t>
+  </si>
+  <si>
+    <t>O estado da companhia não contém uma versão de envio para eventos válida.</t>
+  </si>
+  <si>
+    <t>CompanyNeighbourhoodAddressInvalid</t>
+  </si>
+  <si>
+    <t>O bairro do endereço padrão da companhia é invalido.</t>
+  </si>
+  <si>
+    <t>CompanyNumberCompanyAnddressInvalid</t>
+  </si>
+  <si>
+    <t>O número do endereço padrão da companhia é invalido.</t>
+  </si>
+  <si>
+    <t>CompanySelectPrintDANFE</t>
+  </si>
+  <si>
+    <t>É necessário seleciona um formato de impressão de DANFE para a companhia.</t>
+  </si>
+  <si>
+    <t>CompanyStateCodeInvalid</t>
+  </si>
+  <si>
+    <t>O endereço padrão da companhia não contém um código de estado válido.</t>
+  </si>
+  <si>
+    <t>CompanySymbolStateAddressInvalid</t>
+  </si>
+  <si>
+    <t>A sigla do estado do endereço da companhia é invalido.</t>
+  </si>
+  <si>
+    <t>ComplementedTypeICMSST</t>
+  </si>
+  <si>
+    <t>A tributação do tipo {0} de código {1} deve conter uma tributação complementar do tipo {2}.</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>CSLL</t>
+  </si>
+  <si>
+    <t>CSLLRet</t>
+  </si>
+  <si>
+    <t>CSLLRet | CSLL Retido</t>
+  </si>
+  <si>
+    <t>DateEntryExitCanNotEarlier30</t>
+  </si>
+  <si>
+    <t>A data de entrada ou saída não pode ser anterior a 30 dias.</t>
+  </si>
+  <si>
+    <t>DateEntryExitCanNotEarlierIssue</t>
+  </si>
+  <si>
+    <t>A data de entrada ou saída não pode ser anterior à data de emissão.</t>
+  </si>
+  <si>
+    <t>DocumentTypeInvalidNFe</t>
+  </si>
+  <si>
+    <t>O tipo do documento não corresponde a uma NFe.</t>
+  </si>
+  <si>
+    <t>ElementCanNotBeNullException</t>
+  </si>
+  <si>
+    <t>Element {0} can not be null. Check the object.</t>
+  </si>
+  <si>
+    <t>ElementCanNotBeNullImProcEmiException</t>
+  </si>
+  <si>
+    <t>O campo IE é invalido para o processo de emissão (procEmi) igual a: {0}.</t>
+  </si>
+  <si>
+    <t>ElementInvalidValueException</t>
+  </si>
+  <si>
+    <t>Element {0} does not contain a valid value.</t>
+  </si>
+  <si>
+    <t>FiscalSerieModelInvalid</t>
+  </si>
+  <si>
+    <t>A serie fiscal {0} ,não contem um  modelo válido cadastrado.</t>
+  </si>
+  <si>
+    <t>ICMSRet</t>
+  </si>
+  <si>
+    <t>ICMSSN</t>
+  </si>
+  <si>
+    <t>ICMSSTRet</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Inscrição Municipal | IM</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>INSSRet</t>
+  </si>
+  <si>
+    <t>InvalidElementToExpressionException</t>
+  </si>
+  <si>
+    <t>The value {0} attributed to the element {1} does not match the expression {2}.</t>
+  </si>
+  <si>
+    <t>IRRF</t>
+  </si>
+  <si>
+    <t>IRRFRet</t>
+  </si>
+  <si>
+    <t>ISS</t>
+  </si>
+  <si>
+    <t>ISUF</t>
+  </si>
+  <si>
+    <t>ISUF | SUFRAMA</t>
+  </si>
+  <si>
+    <t>Message_AliquotNotFound</t>
+  </si>
+  <si>
+    <t>O ECF não contém uma alíquota '{0}' de {1}% cadastrada para tributar o item '{2}'.</t>
+  </si>
+  <si>
+    <t>Message_KeyAcessInvalid</t>
+  </si>
+  <si>
+    <t>O documento referenciado Nº {0} não possui Chave de Acesso</t>
+  </si>
+  <si>
+    <t>Message_NFeEmailException</t>
+  </si>
+  <si>
+    <t>A aplicação não pode se comunicar com o serviço de envio de Email, devido a exceção:_x000D_
+{0}</t>
+  </si>
+  <si>
+    <t>Message_NotCancel</t>
+  </si>
+  <si>
+    <t>A NFe correspondente não pode ser cancelada, pois ainda não foi homologada pela Sefaz.</t>
+  </si>
+  <si>
+    <t>Message_SupplierNotFound</t>
+  </si>
+  <si>
+    <t>Não foi possível localizar um fornecedor com o documento Nº {0}.</t>
+  </si>
+  <si>
+    <t>Message_TotalProductsServices</t>
+  </si>
+  <si>
+    <t>O valor total dos serviços e/ou produtos deve ser positivo.</t>
+  </si>
+  <si>
+    <t>NCMInFiscalClassificationInvalid</t>
+  </si>
+  <si>
+    <t>O código NCM da classificação fiscal {0} é inválido.</t>
+  </si>
+  <si>
+    <t>DOCUMENTO EMITIDO POR ME OU EPP OPTANTE PELO SIMPLES NACIONAL, NÃO GERA DIREITO A CRÉDITO FISCAL DE IPI.  PERMITE O APROVEITAMENTO DO CRÉDITO DE ICMS NO VALOR DE R$ {0} CORRESPONDENTE À ALÍQUOTA DE {1}%, NOS TERMOS DO ART. 23 DA LC 123/2006.</t>
+  </si>
+  <si>
+    <t>DOCUMENTO EMITIDO POR ME OU EPP OPTANTE PELO SIMPLES NACIONAL, NÃO GERA DIREITO A CRÉDITO FISCAL DE IPI.</t>
+  </si>
+  <si>
+    <t>PIS</t>
+  </si>
+  <si>
+    <t>PISRet</t>
+  </si>
+  <si>
+    <t>PISRet | PIS Retido</t>
+  </si>
+  <si>
+    <t>PISServ</t>
+  </si>
+  <si>
+    <t>PIS Serviço | PISS</t>
+  </si>
+  <si>
+    <t>PISST</t>
+  </si>
+  <si>
+    <t>ProductCOFINSTax</t>
+  </si>
+  <si>
+    <t>O produto '{0}' - '{1}' deve conter a tributação do tipo COFINS.</t>
+  </si>
+  <si>
+    <t>ProductICMSTax</t>
+  </si>
+  <si>
+    <t>O produto '{0}' - '{1}' deve conter a tributação do tipo ICMS.</t>
+  </si>
+  <si>
+    <t>ProductNCMCodeNull</t>
+  </si>
+  <si>
+    <t>O Produto '{0}' - '{1}' não contém um código NCM válido. Verifique o NCM informado na classificação fiscal ou na categoria do item.</t>
+  </si>
+  <si>
+    <t>ProductPISTax</t>
+  </si>
+  <si>
+    <t>O produto '{0}' - '{1}' deve conter a tributação do tipo PIS.</t>
+  </si>
+  <si>
+    <t>RecipientCityCodeInvalid</t>
+  </si>
+  <si>
+    <t>O endereço padrão do destinatário não contém um código do município válido, conforme a tabela do IBGE.</t>
+  </si>
+  <si>
+    <t>RecipientNotValidAddresNumber</t>
+  </si>
+  <si>
+    <t>O número do endereço padrão do destinatário é invalido.</t>
+  </si>
+  <si>
+    <t>RecipientNotValidAddress</t>
+  </si>
+  <si>
+    <t>O destinatário não contém um endereço padrão válido.</t>
+  </si>
+  <si>
+    <t>RecipientNotValidDocument</t>
+  </si>
+  <si>
+    <t>O destinatário não contem um documento do tipo CPF ou CNPJ válido.</t>
+  </si>
+  <si>
+    <t>RecipientNotValidJuridicalCatalog</t>
+  </si>
+  <si>
+    <t>O destinatário não contém cadastro de pessoa juridica</t>
+  </si>
+  <si>
+    <t>RecipientNotValidPhysicalCatalog</t>
+  </si>
+  <si>
+    <t>O destinatário não contém cadastro de pessoa física.</t>
+  </si>
+  <si>
+    <t>RecipientStateCodeInvalid</t>
+  </si>
+  <si>
+    <t>O endereço padrão do destinatário não contém um código de estado válido.</t>
+  </si>
+  <si>
+    <t>RecipientSymbolStateAddressInvalid</t>
+  </si>
+  <si>
+    <t>A sigla do estado do endereço do destinatário é invalido.</t>
+  </si>
+  <si>
+    <t>SendEvent_CancelNfe</t>
+  </si>
+  <si>
+    <t>SendEvent_LetterCorrection</t>
+  </si>
+  <si>
+    <t>SendEvent_LetterCorrectionDescription</t>
+  </si>
+  <si>
+    <t>Carta de Correção</t>
+  </si>
+  <si>
+    <t>ServiceCodeInServiceIsInvalid</t>
+  </si>
+  <si>
+    <t>O código de serviço do serviço '{0}' é inválido.</t>
+  </si>
+  <si>
+    <t>ServiceCodeTaxSituationInvalid</t>
+  </si>
+  <si>
+    <t>O código de tributação da situação tributária '{0}' é inválido.</t>
+  </si>
+  <si>
+    <t>ServiceISSQNTax</t>
+  </si>
+  <si>
+    <t>O serviço '{0}' deve conter a tributação do tipo ISSQNT.</t>
+  </si>
+  <si>
+    <t>ShippingAddressInvalid</t>
+  </si>
+  <si>
+    <t>O destinatário não contém um endereço de entrega valido, para a modalidade de frete.</t>
+  </si>
+  <si>
+    <t>ShippingAddressNumberInvalid</t>
+  </si>
+  <si>
+    <t>O número do endereço de entrega do destinatário é invalido.</t>
+  </si>
+  <si>
+    <t>ShippingCityCodeInvalid</t>
+  </si>
+  <si>
+    <t>O endereço de entrega do destinatário não contém um código do município válido, conforme a tabela do IBGE.</t>
+  </si>
+  <si>
+    <t>ShippingCodeStateAddressInvalid</t>
+  </si>
+  <si>
+    <t>O estado de entrega não contém um código de estado válido.</t>
+  </si>
+  <si>
+    <t>ShippingNotValidDocument</t>
+  </si>
+  <si>
+    <t>ShippingStateCodeInvalid</t>
+  </si>
+  <si>
+    <t>O endereço de entrega do destinatário não contém um código de estado válido.</t>
+  </si>
+  <si>
+    <t>ShippingSymbolStateAddressInvalid</t>
+  </si>
+  <si>
+    <t>A sigla do estado do  endereço de entrega da destinatário é invalido.</t>
+  </si>
+  <si>
+    <t>TaxCodeInTaxSituationICMSInvalid</t>
+  </si>
+  <si>
+    <t>O código de situação tributária do imposto ICMS, no item '{0}' é inválido para o Regime Tributário da Companhia.</t>
+  </si>
+  <si>
+    <t>TaxCodeInTaxSituationIPIInvalidad</t>
+  </si>
+  <si>
+    <t>O código de situação tributária do imposto IPI, no item '{0}' é inválido para o Regime Tributário da Companhia.</t>
+  </si>
+  <si>
+    <t>TransporterNotValidDocument</t>
+  </si>
+  <si>
+    <t>O transportador não contem um documento do tipo CPF ou CNPJ válido.</t>
+  </si>
+  <si>
+    <t>TransporterSymbolStateAddressInvalid</t>
+  </si>
+  <si>
+    <t>A sigla do estado do endereço do transportador é invalido.</t>
+  </si>
+  <si>
+    <t>TransporterTraillerSymbolStateAddressInvalid</t>
+  </si>
+  <si>
+    <t>A sigla do estado do  endereço do reboque é invalido.</t>
+  </si>
+  <si>
+    <t>ValueOutOfRangeSizeException</t>
+  </si>
+  <si>
+    <t>WithdrawAddressNumberInvalid</t>
+  </si>
+  <si>
+    <t>O número do endereço de embarque é invalido.</t>
+  </si>
+  <si>
+    <t>WithdrawCityCodeInvalid</t>
+  </si>
+  <si>
+    <t>WithdrawSymbolStateAddressInvalid</t>
+  </si>
+  <si>
+    <t>A sigla do estado de embarque da mercadoria é invalido.</t>
+  </si>
+  <si>
+    <t>WithdrawtStateCodeInvalid</t>
+  </si>
+  <si>
+    <t>O endereço de embarque não contém um código de estado válido.</t>
+  </si>
+  <si>
+    <t>XNameApproval</t>
+  </si>
+  <si>
+    <t>NF-E EMITIDA EM AMBIENTE DE HOMOLOGACAO - SEM VALOR FISCAL</t>
+  </si>
+  <si>
+    <t>The code of the company's shipping address state is invalid.</t>
+  </si>
+  <si>
+    <t>O código do estado do endereço de entrega da companhia é invalido.</t>
+  </si>
+  <si>
+    <t>The acronyms/abbreviations of the company's shipping address state is invalid.</t>
+  </si>
+  <si>
+    <t>Could not find a city code {0}.</t>
+  </si>
+  <si>
+    <t>Unable to locate a Fiscal Serial number {0} and model {1}.</t>
+  </si>
+  <si>
+    <t>Could not find a reference to the item '{0} - {1}'.</t>
+  </si>
+  <si>
+    <t>Could not find a person with the number of document '{0}'.</t>
+  </si>
+  <si>
+    <t>Could not locate an acronym for state {0}.</t>
+  </si>
+  <si>
+    <t>Could not find a tribute of type {0}.</t>
+  </si>
+  <si>
+    <t>Could not find a tax status code '{0}' registered for the type of tribute '{1}'.</t>
+  </si>
+  <si>
+    <t>Unable to find a transporter with the number of document '{0}'.</t>
+  </si>
+  <si>
+    <t>The XML of NF-e is not valid for importing.</t>
+  </si>
+  <si>
+    <t>The acronym of the customs clearance status of the product is invalid.</t>
+  </si>
+  <si>
+    <t>National Business Activity Code | NCEA</t>
+  </si>
+  <si>
+    <t>The default address of the company does not contain a valid city code, according to the IBGE table.</t>
+  </si>
+  <si>
+    <t>The county name of the company's default address is invalid.</t>
+  </si>
+  <si>
+    <t>The company does not contain a document type ‘National Code of Business Activity’ ou ‘CNAE’ valid.</t>
+  </si>
+  <si>
+    <t>The company does not contain a document type CNPJ or CPF valid.</t>
+  </si>
+  <si>
+    <t>The company does not contain a document type 'State Registration' or 'IE' valid.</t>
+  </si>
+  <si>
+    <t>The value of the company's state registration is invalid.</t>
+  </si>
+  <si>
+    <t>The Company does not contain a default address registered.</t>
+  </si>
+  <si>
+    <t>The state company does not contain a shipping version valid events.</t>
+  </si>
+  <si>
+    <t>The company's standard address neighborhood is invalid.</t>
+  </si>
+  <si>
+    <t>The company's standard address number is invalid.</t>
+  </si>
+  <si>
+    <t>It is must select an DANFE print format for the company.</t>
+  </si>
+  <si>
+    <t>The default address of the company does not contain a valid state code.</t>
+  </si>
+  <si>
+    <t>The acronym of the company's address state is invalid.</t>
+  </si>
+  <si>
+    <t>Taxation of type {0} code {1} must contain an additional tax of type {2}.</t>
+  </si>
+  <si>
+    <t>The entry or exit date cannot be earlier than 30 days.</t>
+  </si>
+  <si>
+    <t>The entry or exit date cannot be earlier than the date of issue.</t>
+  </si>
+  <si>
+    <t>The document type does not match an NFe.</t>
+  </si>
+  <si>
+    <t>Elemento {0} não pode ser nulo. Verifique o objeto.</t>
+  </si>
+  <si>
+    <t>IE field is invalid to the process of issuing (procEmi) equal to: {0}.</t>
+  </si>
+  <si>
+    <t>Elemento {0} não contém um valor válido.</t>
+  </si>
+  <si>
+    <t>Fiscal series {0}, does not contain a valid model registered.</t>
+  </si>
+  <si>
+    <t>O valor {0} atribuído ao elemento {1} não corresponde a expressão {2}.</t>
+  </si>
+  <si>
+    <t>The ECF contains no aliquot '{0}' of {1}% registered for tax item '{2}'.</t>
+  </si>
+  <si>
+    <t>The referenced document No. {0} does not have Access Key</t>
+  </si>
+  <si>
+    <t>The application can not communicate with the E-mail sending service due to exception: 
+{0}</t>
+  </si>
+  <si>
+    <t>The corresponding NFe cannot be canceled because it has not yet been approved by Sefaz.</t>
+  </si>
+  <si>
+    <t>It was not possible find a supplier with the document No. {0}.</t>
+  </si>
+  <si>
+    <t>The total value of the services and / or products must be positive.</t>
+  </si>
+  <si>
+    <t>NCM code of tax classification {0} is invalid.</t>
+  </si>
+  <si>
+    <t>DOCUMENT ISSUED BY ME OR EPP OPTING FOR SIMPLE NATIONAL DO NOT GENERATE THE RIGHT TO TAX CREDIT IPI. PERMITS ICMS CREDIT UTILIZATION OF THE VALUE OF $ {0} RELEVANT TO RATE OF {1}%, PURSUANT TO ART. 23 THE LC 123/2006.</t>
+  </si>
+  <si>
+    <t>DOCUMENT ISSUED BY ME OR EPP OPTING FOR SIMPLE NATIONAL DO NOT GENERATE THE RIGHT TO TAX CREDIT IPI.</t>
+  </si>
+  <si>
+    <t>The product '{0}' - '{1}' must contain the assessment of COFINS type.</t>
+  </si>
+  <si>
+    <t>The product '{0}' - '{1}' must contain the taxation of ICMS type.</t>
+  </si>
+  <si>
+    <t>The product '{0}' - '{1}' does not contain a valid NCM code. Check NCM informed at the tax classification or category of the item.</t>
+  </si>
+  <si>
+    <t>The product '{0}' - '{1}' must contain the taxation PIS type.</t>
+  </si>
+  <si>
+    <t>The receiver does not contain a type of document CPF or CNPJ valid.</t>
+  </si>
+  <si>
+    <t>The receiver does not contain a valid default address.</t>
+  </si>
+  <si>
+    <t>The default address number the of receiver is invalid.</t>
+  </si>
+  <si>
+    <t>The receiver does not contain legal person registration</t>
+  </si>
+  <si>
+    <t>The receiver does not contain person physical registration.</t>
+  </si>
+  <si>
+    <t>The default address of the receiver does not contain a valid state code.</t>
+  </si>
+  <si>
+    <t>The default address of the receiver does not contain a valid city code, according to the IBGE table.</t>
+  </si>
+  <si>
+    <t>The acronym of the state of the address of the receiver is invalid.</t>
+  </si>
+  <si>
+    <t>Correction letter</t>
+  </si>
+  <si>
+    <t>The service code of the service '{0}' is invalid.</t>
+  </si>
+  <si>
+    <t>The tax code of the tax situation '{0}' is invalid.</t>
+  </si>
+  <si>
+    <t>The service '{0}' must contain the taxation of type ISSQNT</t>
+  </si>
+  <si>
+    <t>The receiver does not contain a valid shipping address, to the modality of freight.</t>
+  </si>
+  <si>
+    <t>The receiver delivery address number is invalid.</t>
+  </si>
+  <si>
+    <t>The delivery address of the receiver does not contain a valid city code, according to the IBGE table.</t>
+  </si>
+  <si>
+    <t>The delivery status does not contain a valid state code.</t>
+  </si>
+  <si>
+    <t>The delivery address of the receiver does not contain a valid state code.</t>
+  </si>
+  <si>
+    <t>The acronyms of the state of the delivery address  of the receiver is invalid.</t>
+  </si>
+  <si>
+    <t>The tax status code of ICMS tax in the item '{0}' is invalid for Company Tax Regime.</t>
+  </si>
+  <si>
+    <t>The code of the IPI tax tax situation, the item '{0}' is invalid for Company Tax Regime.</t>
+  </si>
+  <si>
+    <t>The transporter does not contain a type of document CPF or CNPJ valid.</t>
+  </si>
+  <si>
+    <t>The acronyms of the state of the address of the transporter is invalid.</t>
+  </si>
+  <si>
+    <t>The acronyms of the state of the address of the trailer is invalid.</t>
+  </si>
+  <si>
+    <t>O valor do campo '{0}' está fora do tamanho solicitado. Valor: '{1}' , Tamanho '{2}'.</t>
+  </si>
+  <si>
+    <t>The value of the field '{0}' is out of the requested size. Value: '{1}' Size '{2}'.</t>
+  </si>
+  <si>
+    <t>The boarding address number is invalid.</t>
+  </si>
+  <si>
+    <t>O endereço de embarque não contém um código do município válido, conforme a tabela do IBGE.</t>
+  </si>
+  <si>
+    <t>The address of boarding does not contain a valid city code, according to the IBGE table.</t>
+  </si>
+  <si>
+    <t>The acronym of the state of goods boarding is invalid.</t>
+  </si>
+  <si>
+    <t>NF-E ISSUED IN ENVIRONMENT OF HOMOLOGATION - WITHOUT TAX VALUE</t>
   </si>
 </sst>
 </file>
@@ -5333,7 +6313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5363,6 +6343,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -5695,9 +6678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D614"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B617" sqref="B617"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A476" sqref="A476:C476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12974,4 +13957,1674 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D24">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>808</v>
+      </c>
+      <c r="B45" t="s">
+        <v>809</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>853</v>
+      </c>
+      <c r="B47" t="s">
+        <v>853</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>854</v>
+      </c>
+      <c r="B50" t="s">
+        <v>854</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>855</v>
+      </c>
+      <c r="B52" t="s">
+        <v>856</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>881</v>
+      </c>
+      <c r="B58" t="s">
+        <v>881</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>884</v>
+      </c>
+      <c r="B62" t="s">
+        <v>884</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>935</v>
+      </c>
+      <c r="B65" t="s">
+        <v>936</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B90">
+        <v>110111</v>
+      </c>
+      <c r="C90" s="4">
+        <v>110111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B91">
+        <v>110110</v>
+      </c>
+      <c r="C91" s="4">
+        <v>110110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Tradução - Maicon/Traduções_parte5.xlsx
+++ b/Tradução - Maicon/Traduções_parte5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="2036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="2046">
   <si>
     <t>Português</t>
   </si>
@@ -6232,6 +6232,36 @@
   </si>
   <si>
     <t>NF-E ISSUED IN ENVIRONMENT OF HOMOLOGATION - WITHOUT TAX VALUE</t>
+  </si>
+  <si>
+    <t>The address of shipment does not contain a valid state code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products without project </t>
+  </si>
+  <si>
+    <t>Produtos sem projeto</t>
+  </si>
+  <si>
+    <t>Title_Products_Project</t>
+  </si>
+  <si>
+    <t>O Documento não contém uma observação do tipo 'Cancelamento'</t>
+  </si>
+  <si>
+    <t>The document does not contain a note of type 'Cancellation'</t>
+  </si>
+  <si>
+    <t>Message_Document_Cancellation</t>
+  </si>
+  <si>
+    <t>A data de emissão ({0}) é posterior a data de saída/entrada da mercadoria ({1})</t>
+  </si>
+  <si>
+    <t>The date of issue ({0}) is later than the departure date/entry of the goods ({1})</t>
+  </si>
+  <si>
+    <t>Message_Issue_Later_Date_Entry</t>
   </si>
 </sst>
 </file>
@@ -6679,7 +6709,7 @@
   <dimension ref="A1:D614"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A476" sqref="A476:C476"/>
     </sheetView>
   </sheetViews>
@@ -14291,10 +14321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,7 +15063,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1872</v>
       </c>
@@ -15547,7 +15577,7 @@
         <v>1954</v>
       </c>
       <c r="C113" t="s">
-        <v>1954</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -15559,6 +15589,39 @@
       </c>
       <c r="C114" t="s">
         <v>2035</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2044</v>
       </c>
     </row>
   </sheetData>
@@ -15570,7 +15633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Tradução - Maicon/Traduções_parte5.xlsx
+++ b/Tradução - Maicon/Traduções_parte5.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NFe.UI" sheetId="14" r:id="rId1"/>
     <sheet name="NFe.SnapIn" sheetId="15" r:id="rId2"/>
     <sheet name="NFe.Service" sheetId="17" r:id="rId3"/>
     <sheet name="Acconts.UI" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard.SnapIn" sheetId="18" r:id="rId5"/>
+    <sheet name="KPI.UI" sheetId="19" r:id="rId6"/>
+    <sheet name="Management.UI.Telerik" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NFe.UI!$A$1:$D$611</definedName>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="2046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="2100">
   <si>
     <t>Português</t>
   </si>
@@ -6262,6 +6265,168 @@
   </si>
   <si>
     <t>Message_Issue_Later_Date_Entry</t>
+  </si>
+  <si>
+    <t>Desculpa, mas você não possui permissão para realizar esta operação.\rEm caso de dúvida, contate o administrador.</t>
+  </si>
+  <si>
+    <t>Sorry, but you do not have permission to perform this operation. If in doubt, contact your administrator.</t>
+  </si>
+  <si>
+    <t>Message_Have_Permission</t>
+  </si>
+  <si>
+    <t>Coluna informada não encontrada</t>
+  </si>
+  <si>
+    <t>Unknown column not found</t>
+  </si>
+  <si>
+    <t>Aviso</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Tipo de Coluna para Valor Inválido</t>
+  </si>
+  <si>
+    <t>Column type to Value Invalid</t>
+  </si>
+  <si>
+    <t>Message_Column_Value_Invalid</t>
+  </si>
+  <si>
+    <t>Filtrar por</t>
+  </si>
+  <si>
+    <t>Marcados</t>
+  </si>
+  <si>
+    <t>Desmarcados</t>
+  </si>
+  <si>
+    <t>Filter by</t>
+  </si>
+  <si>
+    <t>Marked</t>
+  </si>
+  <si>
+    <t>Unselected</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>bck_Filter</t>
+  </si>
+  <si>
+    <t>bck_Marked</t>
+  </si>
+  <si>
+    <t>bck_Unselected</t>
+  </si>
+  <si>
+    <t>bck_Clean</t>
+  </si>
+  <si>
+    <t>Mostrar registros com o valor de</t>
+  </si>
+  <si>
+    <t>Filtrar</t>
+  </si>
+  <si>
+    <t>Show records with the value of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter </t>
+  </si>
+  <si>
+    <t>bck_Show_Records</t>
+  </si>
+  <si>
+    <t>bck_Filter_By</t>
+  </si>
+  <si>
+    <t>Até</t>
+  </si>
+  <si>
+    <t>Until</t>
+  </si>
+  <si>
+    <t>bck_Until</t>
+  </si>
+  <si>
+    <t>Carregando...</t>
+  </si>
+  <si>
+    <t>Loading...</t>
+  </si>
+  <si>
+    <t>Busy_Loading</t>
+  </si>
+  <si>
+    <t>Wait...</t>
+  </si>
+  <si>
+    <t>Busy_Wait</t>
+  </si>
+  <si>
+    <t>Total de registros</t>
+  </si>
+  <si>
+    <t>Total records</t>
+  </si>
+  <si>
+    <t>bck_Total_Records</t>
+  </si>
+  <si>
+    <t>Salvar</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>BtnContent_Save</t>
+  </si>
+  <si>
+    <t>BtnContent_Cancel</t>
+  </si>
+  <si>
+    <t>Exportar Dados para Planilha Excel</t>
+  </si>
+  <si>
+    <t>Editar Visões de Dados</t>
+  </si>
+  <si>
+    <t>Export Data to Excel Spreadsheet</t>
+  </si>
+  <si>
+    <t>Data Visions Edit</t>
+  </si>
+  <si>
+    <t>toolTip_Export_Data_Excel</t>
+  </si>
+  <si>
+    <t>toolTip_Data_Visions_Edit</t>
+  </si>
+  <si>
+    <t>Visões de Dados</t>
+  </si>
+  <si>
+    <t>Ocupações</t>
+  </si>
+  <si>
+    <t>Data Views</t>
+  </si>
+  <si>
+    <t>Occupations</t>
+  </si>
+  <si>
+    <t>ReportHeader_Data_Views</t>
+  </si>
+  <si>
+    <t>ReportHeader_Occupations</t>
   </si>
 </sst>
 </file>
@@ -6709,8 +6874,8 @@
   <dimension ref="A1:D614"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A476" sqref="A476:C476"/>
+      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13994,7 +14159,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14316,6 +14481,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14323,8 +14489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15626,6 +15792,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15634,7 +15801,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15689,5 +15856,372 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tradução - Maicon/Traduções_parte5.xlsx
+++ b/Tradução - Maicon/Traduções_parte5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NFe.UI" sheetId="14" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Dashboard.SnapIn" sheetId="18" r:id="rId5"/>
     <sheet name="KPI.UI" sheetId="19" r:id="rId6"/>
     <sheet name="Management.UI.Telerik" sheetId="20" r:id="rId7"/>
+    <sheet name="EntityMap.SnapIn" sheetId="21" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NFe.UI!$A$1:$D$611</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="2100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="2150">
   <si>
     <t>Português</t>
   </si>
@@ -6427,6 +6428,156 @@
   </si>
   <si>
     <t>ReportHeader_Occupations</t>
+  </si>
+  <si>
+    <t>AddEntityDataTypeItemWindowTitle</t>
+  </si>
+  <si>
+    <t>Adicionar Dado</t>
+  </si>
+  <si>
+    <t>AddEntityNavigationItemWindowTitle</t>
+  </si>
+  <si>
+    <t>Adicionar Navegação</t>
+  </si>
+  <si>
+    <t>AddEntityWindowTitle</t>
+  </si>
+  <si>
+    <t>Adicionar Entidade</t>
+  </si>
+  <si>
+    <t>EditEntityDataTypeItemWindowTitle</t>
+  </si>
+  <si>
+    <t>Editar metadata</t>
+  </si>
+  <si>
+    <t>EditEntityNavigationItemWindowTitle</t>
+  </si>
+  <si>
+    <t>Editar Navegação</t>
+  </si>
+  <si>
+    <t>EntityPreviewWindowTitle</t>
+  </si>
+  <si>
+    <t>Preview da Entidade</t>
+  </si>
+  <si>
+    <t>ErrorMessage_SavingMapping</t>
+  </si>
+  <si>
+    <t>Não foi possível salvar o mapeamento de entidades.</t>
+  </si>
+  <si>
+    <t>Message_SavingMapping</t>
+  </si>
+  <si>
+    <t>Salvando...</t>
+  </si>
+  <si>
+    <t>Title_EntitiesSeletor</t>
+  </si>
+  <si>
+    <t>Entidades</t>
+  </si>
+  <si>
+    <t>Title_SavingMapping</t>
+  </si>
+  <si>
+    <t>Add Data</t>
+  </si>
+  <si>
+    <t>Add Navigation</t>
+  </si>
+  <si>
+    <t>Add Entity</t>
+  </si>
+  <si>
+    <t>Edit metadata</t>
+  </si>
+  <si>
+    <t>Edit Navigation</t>
+  </si>
+  <si>
+    <t>Entity Preview</t>
+  </si>
+  <si>
+    <t>Unable to save the mapping entities.</t>
+  </si>
+  <si>
+    <t>Saving ...</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Deseja salvar as alterações? Após salvas, as novas entidades não poderão ser modificadas.</t>
+  </si>
+  <si>
+    <t>You want to save changes? Once saved, the new entities can not be modified.</t>
+  </si>
+  <si>
+    <t>Message_Save_Changes</t>
+  </si>
+  <si>
+    <t>Nome no destino</t>
+  </si>
+  <si>
+    <t>Name the destination</t>
+  </si>
+  <si>
+    <t>Obrigatório na origem</t>
+  </si>
+  <si>
+    <t>Required in origin</t>
+  </si>
+  <si>
+    <t>Obrigatório no destino</t>
+  </si>
+  <si>
+    <t>Required on target</t>
+  </si>
+  <si>
+    <t>Obrigatório</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Display_Name_Destination</t>
+  </si>
+  <si>
+    <t>Display_Required_Origin</t>
+  </si>
+  <si>
+    <t>Display_Required_Target</t>
+  </si>
+  <si>
+    <t>Display_Mandatory</t>
+  </si>
+  <si>
+    <t>Display_Name</t>
+  </si>
+  <si>
+    <t>Entidade destino</t>
+  </si>
+  <si>
+    <t>Entity destination</t>
+  </si>
+  <si>
+    <t>Display_Entity_Destination</t>
+  </si>
+  <si>
+    <t>Multiplicidade do Destino</t>
+  </si>
+  <si>
+    <t>Multiplicity of Destiny</t>
+  </si>
+  <si>
+    <t>Display_Multiplicity_Destiny</t>
   </si>
 </sst>
 </file>
@@ -14489,7 +14640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -15991,8 +16142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16000,6 +16151,7 @@
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -16224,4 +16376,236 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>634</v>
+      </c>
+      <c r="C17" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Tradução - Maicon/Traduções_parte5.xlsx
+++ b/Tradução - Maicon/Traduções_parte5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="689" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="NFe.UI" sheetId="14" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="KPI.UI" sheetId="19" r:id="rId6"/>
     <sheet name="Management.UI.Telerik" sheetId="20" r:id="rId7"/>
     <sheet name="EntityMap.SnapIn" sheetId="21" r:id="rId8"/>
+    <sheet name="DataServices.Entities" sheetId="22" r:id="rId9"/>
+    <sheet name="DataServices.Manager" sheetId="23" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NFe.UI!$A$1:$D$611</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="2345">
   <si>
     <t>Português</t>
   </si>
@@ -6578,6 +6580,623 @@
   </si>
   <si>
     <t>Display_Multiplicity_Destiny</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Frio</t>
+  </si>
+  <si>
+    <t>ComputerPhysicalAddressInvalid</t>
+  </si>
+  <si>
+    <t>Endereço físico do computador é invalido.</t>
+  </si>
+  <si>
+    <t>Description_DefaultDashboard</t>
+  </si>
+  <si>
+    <t>Área de Trabalho</t>
+  </si>
+  <si>
+    <t>Description_FlowExecutionNotification</t>
+  </si>
+  <si>
+    <t>Novo atendimento no Manager - {0}</t>
+  </si>
+  <si>
+    <t>ErrorMessage_AccountNotFound</t>
+  </si>
+  <si>
+    <t>ErrorMessage_AzureRequired</t>
+  </si>
+  <si>
+    <t>Application is not running in Windows Azure Environment</t>
+  </si>
+  <si>
+    <t>ErrorMessage_CompanyNotFound</t>
+  </si>
+  <si>
+    <t>Companhia não encontrada.</t>
+  </si>
+  <si>
+    <t>ErrorMessage_EmptyRepositories</t>
+  </si>
+  <si>
+    <t>Nenhum repositório foi informado.</t>
+  </si>
+  <si>
+    <t>ErrorMessage_FactoryNodeNotFound</t>
+  </si>
+  <si>
+    <t>Nodo fábrica não encontrado.</t>
+  </si>
+  <si>
+    <t>ErrorMessage_GetContracts</t>
+  </si>
+  <si>
+    <t>Não foi possível recuperar algumas licenças do identificador "{0}" para o produto "{1}".</t>
+  </si>
+  <si>
+    <t>ErrorMessage_IntegrationFileNotFound</t>
+  </si>
+  <si>
+    <t>Arquivo de integração não localizado</t>
+  </si>
+  <si>
+    <t>ErrorMessage_IntegrationServiceIsStopped</t>
+  </si>
+  <si>
+    <t>O serviço de integração não foi iniciado ou o endereço físico do computador é invalido.</t>
+  </si>
+  <si>
+    <t>ErrorMessage_InvalidAccountID</t>
+  </si>
+  <si>
+    <t>ErrorMessage_InvalidCompanyLicense</t>
+  </si>
+  <si>
+    <t>A companhia deste número de série não pertence a estrutura da fábrica "{0}"</t>
+  </si>
+  <si>
+    <t>ErrorMessage_InvalidSerialNumber</t>
+  </si>
+  <si>
+    <t>Número de série não encontrado</t>
+  </si>
+  <si>
+    <t>ErrorMessage_LegalTermsNotAccepted</t>
+  </si>
+  <si>
+    <t>ErrorMessage_OwnerIsRunning</t>
+  </si>
+  <si>
+    <t>A companhia informada já está processando licenças</t>
+  </si>
+  <si>
+    <t>ErrorMessage_OwnerNotFound</t>
+  </si>
+  <si>
+    <t>O owner "{0}" não foi encontrado</t>
+  </si>
+  <si>
+    <t>ErrorMessage_UnableToFindSystem</t>
+  </si>
+  <si>
+    <t>Não foi possível obter o sistema do Promob no Manager</t>
+  </si>
+  <si>
+    <t>ErrorMessage_UserIsNotAccountResponsible</t>
+  </si>
+  <si>
+    <t>O usuário informado não é responsável pela conta do Portal da Promob.</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Quente</t>
+  </si>
+  <si>
+    <t>InvalidOwner</t>
+  </si>
+  <si>
+    <t>A companhia informada é inválida.</t>
+  </si>
+  <si>
+    <t>LicenseManagerAllInUse</t>
+  </si>
+  <si>
+    <t>Acesso bloqueado. _x000D_
+(002)Todas as licenças disponíveis estão em uso no momento</t>
+  </si>
+  <si>
+    <t>LicenseManagerExpiratedLicenses</t>
+  </si>
+  <si>
+    <t>Acesso bloqueado. _x000D_
+(001)A Loja não renovou as licenças de login no Manager.</t>
+  </si>
+  <si>
+    <t>LicenseManagerNoLicensesAvailable</t>
+  </si>
+  <si>
+    <t>Acesso bloqueado. _x000D_
+(001)A Loja não possui licenças de login disponíveis.</t>
+  </si>
+  <si>
+    <t>LicenseManagerNotInitialized</t>
+  </si>
+  <si>
+    <t>O gerenciador de licenças não foi inicializado.</t>
+  </si>
+  <si>
+    <t>LicenseManagerOverdueLicenses</t>
+  </si>
+  <si>
+    <t>Acesso bloqueado. _x000D_
+A Loja possui pendências junto a Promob.</t>
+  </si>
+  <si>
+    <t>LicenseManagerUnableToRenewLicense</t>
+  </si>
+  <si>
+    <t>Não foi possível renovar a licença.</t>
+  </si>
+  <si>
+    <t>LicensesUpdateRunning</t>
+  </si>
+  <si>
+    <t>O processo automático de atualização de licenças está em execução. Por favor aguarde.</t>
+  </si>
+  <si>
+    <t>NotifyMessage_ContractsFound</t>
+  </si>
+  <si>
+    <t>Seriais encontrados:</t>
+  </si>
+  <si>
+    <t>NotifyMessage_ContractsNotFound</t>
+  </si>
+  <si>
+    <t>Nenhum contrato encontrado.</t>
+  </si>
+  <si>
+    <t>NotifyMessage_InvalidProductLibrary</t>
+  </si>
+  <si>
+    <t>A licença "{0}" não foi adicionada pois não foi possível identificar o produto : "{1}"</t>
+  </si>
+  <si>
+    <t>NotifyMessage_OwnerError</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro durante o processamento do Owner "{0}"</t>
+  </si>
+  <si>
+    <t>NotifyMessage_ProcessEndedError</t>
+  </si>
+  <si>
+    <t>O processo foi finalizado com erro, uma solicitação foi aberta na Promob.</t>
+  </si>
+  <si>
+    <t>NotifyMessage_ProcessEndedSuccess</t>
+  </si>
+  <si>
+    <t>Processo finalizado com sucesso.</t>
+  </si>
+  <si>
+    <t>NotifyMessage_ProcessingCompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Processando Compania: {0}.</t>
+  </si>
+  <si>
+    <t>NotifyMessage_ProcessingOwner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Processando Owner: {0}.</t>
+  </si>
+  <si>
+    <t>NotifyMessage_ProcessStarted</t>
+  </si>
+  <si>
+    <t>Processo de atualização de licenças iniciado.</t>
+  </si>
+  <si>
+    <t>NotifyMessage_SearchingAccountId</t>
+  </si>
+  <si>
+    <t>Pesquisando Código do Portal: {0}</t>
+  </si>
+  <si>
+    <t>NotifyMessage_SearchingIdentification</t>
+  </si>
+  <si>
+    <t>Pesquisando CNPJ/CPF: {0}</t>
+  </si>
+  <si>
+    <t>NotifyMessage_SerialNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SN: {0} ({1})</t>
+  </si>
+  <si>
+    <t>PromobIDAlreadyBound</t>
+  </si>
+  <si>
+    <t>Está conta já foi vinculada a esta companhia</t>
+  </si>
+  <si>
+    <t>SelectSharedCompaniesQuery</t>
+  </si>
+  <si>
+    <t>select @companyID as companyID_x000D_
+union_x000D_
+select distinct A.companyID_x000D_
+from SharedTables as A with (nolock)_x000D_
+inner join Tables as B with (nolock) on A.tableID = B.id_x000D_
+inner join Companies as C with (nolock) on A.companyID = C.id_x000D_
+left outer join_x000D_
+(_x000D_
+	select sharedTableID from SharedTablesUsers with (nolock) where userID = @userID_x000D_
+) as D on A.id = D.sharedTableID_x000D_
+outer apply_x000D_
+(_x000D_
+	select top 1 sharedTableID from SharedTablesUsers as X with (nolock) where A.id = X.sharedTableID_x000D_
+) as E_x000D_
+where A.sharedCompanyID = @companyID and B.name = @tableName and C.allowSharing = 1 and (D.sharedTableID is not null or (D.sharedTableID is null and E.sharedTableID is null))</t>
+  </si>
+  <si>
+    <t>SupportCamlTemplate</t>
+  </si>
+  <si>
+    <t>&lt;View&gt;&lt;Query&gt;&lt;Where&gt;&lt;Contains&gt;&lt;FieldRef Name='RequestHash'/&gt;&lt;Value Type='Text'&gt;&lt;![CDATA[{0}]]&gt;&lt;/Value&gt;&lt;/Contains&gt;&lt;/Where&gt;&lt;/Query&gt;&lt;/View&gt;</t>
+  </si>
+  <si>
+    <t>SupportEmail_Subject</t>
+  </si>
+  <si>
+    <t>Solicitação Manager - {0}</t>
+  </si>
+  <si>
+    <t>SyncLicencesError</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao sincronizar as licenças do Manager. Verifique os detalhes no log de erros gerado: {0}\LicensesUpdateError.log</t>
+  </si>
+  <si>
+    <t>SyncLicencesErrorTitle</t>
+  </si>
+  <si>
+    <t>Manager - Erro ao sincronizar licenças no servidor</t>
+  </si>
+  <si>
+    <t>UserBlockedFaultMessage</t>
+  </si>
+  <si>
+    <t>O usuário está bloqueado.</t>
+  </si>
+  <si>
+    <t>UserBlockedThisDateFaulMessage</t>
+  </si>
+  <si>
+    <t>Usuário bloqueado nesta data.</t>
+  </si>
+  <si>
+    <t>UserEarlierAccessFaultMessage</t>
+  </si>
+  <si>
+    <t>O usuário ainda não está autorizado a usar o sistema.</t>
+  </si>
+  <si>
+    <t>UserExpiredAccessFaultMessage</t>
+  </si>
+  <si>
+    <t>A sua permissão para acessar o sistema expirou.</t>
+  </si>
+  <si>
+    <t>UserMachineAccessNotValidedFaulMessage</t>
+  </si>
+  <si>
+    <t>Usuário não permitido para este computador.</t>
+  </si>
+  <si>
+    <t>UserNotAllowedBecauseDefaultCompanyDoesntAllowSharing</t>
+  </si>
+  <si>
+    <t>A companhia padrão deste usuário não compartilha dados._x000D_
+Usuários de outras companhias não possuem permissão de acesso.</t>
+  </si>
+  <si>
+    <t>UserNotAllowedThisDateFaulMenssage</t>
+  </si>
+  <si>
+    <t>Usuário sem acesso nessa data.</t>
+  </si>
+  <si>
+    <t>UserNotAllowedThisScheduleFaulMessage</t>
+  </si>
+  <si>
+    <t>Usuário sem acesso nesse horário.</t>
+  </si>
+  <si>
+    <t>UserNotFoundFaultMessage</t>
+  </si>
+  <si>
+    <t>O usuário ou senha são inválidos.</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Morno</t>
+  </si>
+  <si>
+    <t>A conta da companhia {0}" não foi encontrada no Portal da Promob. Por favor, entre em contato com o suporte da Promob para mais informações."</t>
+  </si>
+  <si>
+    <t>A companhia {0}" não possui as informações da conta do Portal da Promob. Por favor, entre em contato com o suporte da Promob para mais informações."</t>
+  </si>
+  <si>
+    <t>computer's physical address is invalid.</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>New service in Manager - {0}</t>
+  </si>
+  <si>
+    <t>The company's account {0} "was not found in Portal Promob. Please contact the support Promob for more information."</t>
+  </si>
+  <si>
+    <t>Company not found.</t>
+  </si>
+  <si>
+    <t>No repository has been informed.</t>
+  </si>
+  <si>
+    <t>Nodo factory not found.</t>
+  </si>
+  <si>
+    <t>Unable to retrieve some licenses identifier "{0}" for the product "{1}".</t>
+  </si>
+  <si>
+    <t>not located integration file</t>
+  </si>
+  <si>
+    <t>The integration service has not been started or the physical address of the computer is invalid.</t>
+  </si>
+  <si>
+    <t>The company {0} "does not have the Portal account information Promob. Please contact the support Promob for more information."</t>
+  </si>
+  <si>
+    <t>The company this serial number does not belong to the plant structure "{0}"</t>
+  </si>
+  <si>
+    <t>Serial number not found</t>
+  </si>
+  <si>
+    <t>legal terms were not accepted</t>
+  </si>
+  <si>
+    <t>Termos legais não foram aceitos</t>
+  </si>
+  <si>
+    <t>The company informed is already processing licenses</t>
+  </si>
+  <si>
+    <t>The owner "{0}" not found</t>
+  </si>
+  <si>
+    <t>Could not get Promob system in Manager</t>
+  </si>
+  <si>
+    <t>The informed user is not responsible for the Promob Portal account.</t>
+  </si>
+  <si>
+    <t>The company informed is invalid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked access._x000D_
+(002) All available licenses are currently in use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked access._x000D_
+(001) Store not renewed login licenses in the Manager. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked access._x000D_
+(001) Store does not have logon licenses available. </t>
+  </si>
+  <si>
+    <t>The license manager is not initialized.</t>
+  </si>
+  <si>
+    <t>Blocked access.
+ The shop has pending with the Promob.</t>
+  </si>
+  <si>
+    <t>The automatic update process licenses is running. Please wait.</t>
+  </si>
+  <si>
+    <t>Could not renew the license.</t>
+  </si>
+  <si>
+    <t>Serial found:</t>
+  </si>
+  <si>
+    <t>No contract found.</t>
+  </si>
+  <si>
+    <t>The license "{0}" was not added because it was not possible to identify the product: "{1}"</t>
+  </si>
+  <si>
+    <t>An error occurred while processing the Owner "{0}"</t>
+  </si>
+  <si>
+    <t>The process was completed with error, a request was opened in Promob.</t>
+  </si>
+  <si>
+    <t>Successfully completed process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Processing Company: {0}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Processing Owner: {0}.</t>
+  </si>
+  <si>
+    <t>License upgrade process started.</t>
+  </si>
+  <si>
+    <t>Searching Portal code: {0}</t>
+  </si>
+  <si>
+    <t>Searching CNPJ / CPF: {0}</t>
+  </si>
+  <si>
+    <t>You account has already been linked to this company</t>
+  </si>
+  <si>
+    <t>Request Manager - {0}</t>
+  </si>
+  <si>
+    <t>An error occurred while synchronizing Manager licenses. Check the details in the generated error log: {0}\ LicensesUpdateError.log</t>
+  </si>
+  <si>
+    <t>Manager - Error synchronizing server licenses</t>
+  </si>
+  <si>
+    <t>The user is blocked.</t>
+  </si>
+  <si>
+    <t>User blocked today.</t>
+  </si>
+  <si>
+    <t>The user is not authorized to use the system.</t>
+  </si>
+  <si>
+    <t>Your permission to access the system has expired.</t>
+  </si>
+  <si>
+    <t>User not allowed for this computer.</t>
+  </si>
+  <si>
+    <t>The default company this user does not share data. 
+Users of other companies do not have access permission.</t>
+  </si>
+  <si>
+    <t>User without access today.</t>
+  </si>
+  <si>
+    <t>User with no access at this time.</t>
+  </si>
+  <si>
+    <t>The username or password are invalid.</t>
+  </si>
+  <si>
+    <t>Pessoa Associada: {0}&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Connected Person: {0}&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>AssociatedPerson</t>
+  </si>
+  <si>
+    <t>ErrorMessage_CreateFiles</t>
+  </si>
+  <si>
+    <t>Ocorreram erros ao salvar o arquivo no Manager. Tente fazer o upload novamente._x000D_
+Se o problema persistir entre em contato com a Promob.</t>
+  </si>
+  <si>
+    <t>ErrorMessage_InvalidOwner</t>
+  </si>
+  <si>
+    <t>Empresa não encontrada</t>
+  </si>
+  <si>
+    <t>ErrorMessage_RunningLicensesUpdate</t>
+  </si>
+  <si>
+    <t>O processo de atualização de licenças está em execução. Por favor aguarde.</t>
+  </si>
+  <si>
+    <t>ErrorMessage_UpdateLicenses</t>
+  </si>
+  <si>
+    <t>Ocorreram erros ao atualizar as licenças._x000D_
+Detalhes: {0}</t>
+  </si>
+  <si>
+    <t>Message_RenewSucceeded</t>
+  </si>
+  <si>
+    <t>Renovação ocorreu com sucesso.</t>
+  </si>
+  <si>
+    <t>Message_UpdateLicenses</t>
+  </si>
+  <si>
+    <t>Atualização de licenças finalizada com sucesso.</t>
+  </si>
+  <si>
+    <t>Erro ao atualizar licenças do Manager</t>
+  </si>
+  <si>
+    <t>Template_EntityFrameworkJson</t>
+  </si>
+  <si>
+    <t>Ocorreram erros ao atualizar as licenças de {0}":
+Detalhes: {1}"</t>
+  </si>
+  <si>
+    <t>{{
+    "d": {0}
+}}</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao atualizar os produtos</t>
+  </si>
+  <si>
+    <t>An error occurred while updating Products</t>
+  </si>
+  <si>
+    <t>Exception_Updating_Products</t>
+  </si>
+  <si>
+    <t>Errors occurred while saving the file to the Manager. Try uploading again.
+If the problem persists contact the Promob.</t>
+  </si>
+  <si>
+    <t>Company not found</t>
+  </si>
+  <si>
+    <t>The process of upgrade licenses is running. Please wait.</t>
+  </si>
+  <si>
+    <t>Errors occurred while updating the license.
+Details: {0}</t>
+  </si>
+  <si>
+    <t>Renewal was successful.</t>
+  </si>
+  <si>
+    <t>Update completed successfully licenses.</t>
+  </si>
+  <si>
+    <t>Errors occurred while updating the license {0}":
+Details: {1}"</t>
+  </si>
+  <si>
+    <t>Error updating Manager licenses</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao quitar os títulos</t>
   </si>
 </sst>
 </file>
@@ -14305,6 +14924,155 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
@@ -16382,8 +17150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16607,5 +17375,679 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tradução - Maicon/Traduções_parte5.xlsx
+++ b/Tradução - Maicon/Traduções_parte5.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="2345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="2368">
   <si>
     <t>Português</t>
   </si>
@@ -7166,9 +7166,6 @@
     <t>An error occurred while updating Products</t>
   </si>
   <si>
-    <t>Exception_Updating_Products</t>
-  </si>
-  <si>
     <t>Errors occurred while saving the file to the Manager. Try uploading again.
 If the problem persists contact the Promob.</t>
   </si>
@@ -7197,6 +7194,78 @@
   </si>
   <si>
     <t>Ocorreu um erro ao quitar os títulos</t>
+  </si>
+  <si>
+    <t>An error occurred while pay off the titles</t>
+  </si>
+  <si>
+    <t>An error occurred while releasing the titles</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao liberar os títulos</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Releasing</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Updating</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Pay_Off</t>
+  </si>
+  <si>
+    <t>An error occurred while pay off the transactions</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao quitar transações</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Pay_Off_Transactions</t>
+  </si>
+  <si>
+    <t>An error occurred while finding the Ids flows</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao buscar Ids dos Fluxos</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Finding_Flows</t>
+  </si>
+  <si>
+    <t>An error occurred while finding next code</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro buscar o próximo código</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Next_Code</t>
+  </si>
+  <si>
+    <t>An error occurred while retrieving items</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Retrieving_Itens</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao recuperar os itens</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao atualizar os indicadores dos residentes.</t>
+  </si>
+  <si>
+    <t>An error occurred while updating the indicators of residents.</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Indicators_Residents</t>
+  </si>
+  <si>
+    <t>An error occurred while processing this notification</t>
+  </si>
+  <si>
+    <t>Ocorreu um erro ao processar esta notificação</t>
+  </si>
+  <si>
+    <t>Exception_Erro_Processing_Notification</t>
   </si>
 </sst>
 </file>
@@ -14926,10 +14995,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14961,7 +15030,7 @@
         <v>2318</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14972,7 +15041,7 @@
         <v>2320</v>
       </c>
       <c r="C3" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -14983,7 +15052,7 @@
         <v>2322</v>
       </c>
       <c r="C4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -14994,7 +15063,7 @@
         <v>2324</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -15005,7 +15074,7 @@
         <v>2326</v>
       </c>
       <c r="C6" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -15016,7 +15085,7 @@
         <v>2328</v>
       </c>
       <c r="C7" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -15027,7 +15096,7 @@
         <v>2331</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -15038,7 +15107,7 @@
         <v>2329</v>
       </c>
       <c r="C9" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -15054,7 +15123,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2335</v>
+        <v>2348</v>
       </c>
       <c r="B11" t="s">
         <v>2333</v>
@@ -15064,8 +15133,91 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2349</v>
+      </c>
       <c r="B12" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C12" t="s">
         <v>2344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2365</v>
       </c>
     </row>
   </sheetData>
@@ -17650,7 +17802,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2191</v>
       </c>
@@ -17980,7 +18132,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2251</v>
       </c>
